--- a/Teaching work/2025/เทอม_01/ENGCC304_Computer Programming_การเขียนโปรแกรมคอมพิวเตอร์/Studentlist20250626101024.xlsx
+++ b/Teaching work/2025/เทอม_01/ENGCC304_Computer Programming_การเขียนโปรแกรมคอมพิวเตอร์/Studentlist20250626101024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LOBSTER69\Documents\GitHub\WORK\Teaching work\2025\เทอม_01\ENGCC304_Computer Programming_การเขียนโปรแกรมคอมพิวเตอร์\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34FECB10-60DC-4084-8B30-1A6CB61E70DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59AE8F30-79C6-4DA4-BFCD-59449F8083A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -187,14 +187,14 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
+      <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="TH SarabunPSK"/>
       <family val="2"/>
       <charset val="222"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="TH SarabunPSK"/>
       <family val="2"/>
@@ -253,21 +253,19 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -576,803 +574,824 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V20" sqref="V20"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="Y16" sqref="Y16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="24" x14ac:dyDescent="0.8"/>
   <cols>
-    <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="45" customWidth="1"/>
-    <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="19" width="3" customWidth="1"/>
+    <col min="1" max="1" width="5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="15" style="2" customWidth="1"/>
+    <col min="3" max="3" width="45" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10" style="2" customWidth="1"/>
+    <col min="5" max="19" width="3" style="2" customWidth="1"/>
+    <col min="20" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="16" x14ac:dyDescent="0.5">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.8">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-    </row>
-    <row r="2" spans="1:19" ht="16" x14ac:dyDescent="0.5">
-      <c r="A2" s="5" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.8">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-    </row>
-    <row r="3" spans="1:19" ht="16" x14ac:dyDescent="0.5">
-      <c r="A3" s="6" t="s">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.8">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-    </row>
-    <row r="4" spans="1:19" ht="16" x14ac:dyDescent="0.5">
-      <c r="A4" s="6" t="s">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.8">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-    </row>
-    <row r="5" spans="1:19" ht="15" x14ac:dyDescent="0.35">
-      <c r="A5" s="7" t="s">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.8">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="4">
         <v>6</v>
       </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-    </row>
-    <row r="6" spans="1:19" ht="15" x14ac:dyDescent="0.35">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="1" t="s">
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.8">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="4">
         <v>26</v>
       </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-    </row>
-    <row r="7" spans="1:19" ht="15" x14ac:dyDescent="0.35">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="1" t="s">
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.8">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="4">
         <v>1</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="4">
         <v>2</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="4">
         <v>3</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="4">
         <v>4</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="4">
         <v>5</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7" s="4">
         <v>6</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7" s="4">
         <v>7</v>
       </c>
-      <c r="L7" s="1">
+      <c r="L7" s="4">
         <v>8</v>
       </c>
-      <c r="M7" s="1">
+      <c r="M7" s="4">
         <v>9</v>
       </c>
-      <c r="N7" s="1">
+      <c r="N7" s="4">
         <v>10</v>
       </c>
-      <c r="O7" s="1">
+      <c r="O7" s="4">
         <v>11</v>
       </c>
-      <c r="P7" s="1">
+      <c r="P7" s="4">
         <v>12</v>
       </c>
-      <c r="Q7" s="1">
+      <c r="Q7" s="4">
         <v>13</v>
       </c>
-      <c r="R7" s="1">
+      <c r="R7" s="4">
         <v>14</v>
       </c>
-      <c r="S7" s="1">
+      <c r="S7" s="4">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="16" x14ac:dyDescent="0.5">
-      <c r="A8" s="2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.8">
+      <c r="A8" s="4">
         <v>1</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-    </row>
-    <row r="9" spans="1:19" ht="16" x14ac:dyDescent="0.5">
-      <c r="A9" s="2">
+      <c r="D8" s="6"/>
+      <c r="E8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.8">
+      <c r="A9" s="4">
         <v>2</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-    </row>
-    <row r="10" spans="1:19" ht="16" x14ac:dyDescent="0.5">
-      <c r="A10" s="2">
+      <c r="D9" s="6"/>
+      <c r="E9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.8">
+      <c r="A10" s="4">
         <v>3</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
-    </row>
-    <row r="11" spans="1:19" ht="16" x14ac:dyDescent="0.5">
-      <c r="A11" s="2">
+      <c r="D10" s="6"/>
+      <c r="E10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.8">
+      <c r="A11" s="4">
         <v>4</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
-    </row>
-    <row r="12" spans="1:19" ht="16" x14ac:dyDescent="0.5">
-      <c r="A12" s="2">
+      <c r="D11" s="6"/>
+      <c r="E11" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.8">
+      <c r="A12" s="4">
         <v>5</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
-    </row>
-    <row r="13" spans="1:19" ht="16" x14ac:dyDescent="0.5">
-      <c r="A13" s="2">
+      <c r="D12" s="6"/>
+      <c r="E12" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.8">
+      <c r="A13" s="4">
         <v>6</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
-    </row>
-    <row r="14" spans="1:19" ht="16" x14ac:dyDescent="0.5">
-      <c r="A14" s="2">
+      <c r="D13" s="6"/>
+      <c r="E13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.8">
+      <c r="A14" s="4">
         <v>7</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="2"/>
-    </row>
-    <row r="15" spans="1:19" ht="16" x14ac:dyDescent="0.5">
-      <c r="A15" s="2">
+      <c r="D14" s="6"/>
+      <c r="E14" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.8">
+      <c r="A15" s="4">
         <v>8</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
-      <c r="S15" s="2"/>
-    </row>
-    <row r="16" spans="1:19" ht="16" x14ac:dyDescent="0.5">
-      <c r="A16" s="2">
+      <c r="D15" s="6"/>
+      <c r="E15" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.8">
+      <c r="A16" s="4">
         <v>9</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
-      <c r="S16" s="2"/>
-    </row>
-    <row r="17" spans="1:19" ht="16" x14ac:dyDescent="0.5">
-      <c r="A17" s="2">
+      <c r="D16" s="6"/>
+      <c r="E16" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.8">
+      <c r="A17" s="4">
         <v>10</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="2"/>
-      <c r="S17" s="2"/>
-    </row>
-    <row r="18" spans="1:19" ht="16" x14ac:dyDescent="0.5">
-      <c r="A18" s="2">
+      <c r="D17" s="6"/>
+      <c r="E17" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.8">
+      <c r="A18" s="4">
         <v>11</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="2"/>
-      <c r="S18" s="2"/>
-    </row>
-    <row r="19" spans="1:19" ht="16" x14ac:dyDescent="0.5">
-      <c r="A19" s="2">
+      <c r="D18" s="6"/>
+      <c r="E18" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.8">
+      <c r="A19" s="4">
         <v>12</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="2"/>
-      <c r="S19" s="2"/>
-    </row>
-    <row r="20" spans="1:19" ht="16" x14ac:dyDescent="0.5">
-      <c r="A20" s="2">
+      <c r="D19" s="6"/>
+      <c r="E19" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.8">
+      <c r="A20" s="4">
         <v>13</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="2"/>
-      <c r="S20" s="2"/>
-    </row>
-    <row r="21" spans="1:19" ht="16" x14ac:dyDescent="0.5">
-      <c r="A21" s="2">
+      <c r="D20" s="6"/>
+      <c r="E20" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.8">
+      <c r="A21" s="4">
         <v>14</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
-      <c r="R21" s="2"/>
-      <c r="S21" s="2"/>
-    </row>
-    <row r="22" spans="1:19" ht="16" x14ac:dyDescent="0.5">
-      <c r="A22" s="2">
+      <c r="D21" s="6"/>
+      <c r="E21" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.8">
+      <c r="A22" s="4">
         <v>15</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D22" s="4"/>
-      <c r="E22" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="2"/>
-      <c r="S22" s="2"/>
-    </row>
-    <row r="23" spans="1:19" ht="16" x14ac:dyDescent="0.5">
-      <c r="A23" s="2">
+      <c r="D22" s="6"/>
+      <c r="E22" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.8">
+      <c r="A23" s="4">
         <v>16</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D23" s="4"/>
-      <c r="E23" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
-      <c r="Q23" s="2"/>
-      <c r="R23" s="2"/>
-      <c r="S23" s="2"/>
-    </row>
-    <row r="24" spans="1:19" ht="16" x14ac:dyDescent="0.5">
-      <c r="A24" s="2">
+      <c r="D23" s="6"/>
+      <c r="E23" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.8">
+      <c r="A24" s="4">
         <v>17</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D24" s="4"/>
-      <c r="E24" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
-      <c r="P24" s="2"/>
-      <c r="Q24" s="2"/>
-      <c r="R24" s="2"/>
-      <c r="S24" s="2"/>
-    </row>
-    <row r="25" spans="1:19" ht="16" x14ac:dyDescent="0.5">
-      <c r="A25" s="2">
+      <c r="D24" s="6"/>
+      <c r="E24" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.8">
+      <c r="A25" s="4">
         <v>18</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D25" s="4"/>
-      <c r="E25" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
-      <c r="P25" s="2"/>
-      <c r="Q25" s="2"/>
-      <c r="R25" s="2"/>
-      <c r="S25" s="2"/>
-    </row>
-    <row r="26" spans="1:19" ht="16" x14ac:dyDescent="0.5">
-      <c r="A26" s="2">
+      <c r="D25" s="6"/>
+      <c r="E25" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="5"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.8">
+      <c r="A26" s="4">
         <v>19</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D26" s="4"/>
-      <c r="E26" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
-      <c r="P26" s="2"/>
-      <c r="Q26" s="2"/>
-      <c r="R26" s="2"/>
-      <c r="S26" s="2"/>
-    </row>
-    <row r="27" spans="1:19" ht="16" x14ac:dyDescent="0.5">
-      <c r="A27" s="2">
+      <c r="D26" s="6"/>
+      <c r="E26" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
+      <c r="S26" s="5"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.8">
+      <c r="A27" s="4">
         <v>20</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D27" s="4"/>
-      <c r="E27" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
-      <c r="P27" s="2"/>
-      <c r="Q27" s="2"/>
-      <c r="R27" s="2"/>
-      <c r="S27" s="2"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="5"/>
+      <c r="S27" s="5"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="27">
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="A2:S2"/>
     <mergeCell ref="A3:S3"/>
@@ -1380,26 +1399,6 @@
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="C5:C7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
